--- a/健康档案字段/基础字段/健康档案字段 v4.0.xlsx
+++ b/健康档案字段/基础字段/健康档案字段 v4.0.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangyangliang/工作/石景山课题/健康档案字段/基础字段/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangyangliang/工作/HLM/健康档案字段/基础字段/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="患者档案" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="304">
   <si>
     <t>字段名</t>
     <rPh sb="0" eb="1">
@@ -1701,6 +1701,16 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺血性脑卒中</t>
+    <rPh sb="0" eb="1">
+      <t>que'xue'xing</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>nao'zhu'zhong</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1889,7 +1899,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2082,6 +2092,12 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2097,9 +2113,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2757,7 +2770,7 @@
       <c r="H4" s="42"/>
     </row>
     <row r="5" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="84" t="s">
         <v>252</v>
       </c>
       <c r="B5" s="10" t="s">
@@ -2777,7 +2790,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="82"/>
+      <c r="A6" s="84"/>
       <c r="B6" s="10" t="s">
         <v>148</v>
       </c>
@@ -2809,7 +2822,7 @@
       <c r="H7" s="31"/>
     </row>
     <row r="8" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="82" t="s">
+      <c r="A8" s="84" t="s">
         <v>250</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -2827,7 +2840,7 @@
       <c r="H8" s="31"/>
     </row>
     <row r="9" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="82"/>
+      <c r="A9" s="84"/>
       <c r="B9" s="11" t="s">
         <v>102</v>
       </c>
@@ -2845,7 +2858,7 @@
       <c r="H9" s="42"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="82"/>
+      <c r="A10" s="84"/>
       <c r="B10" s="15" t="s">
         <v>239</v>
       </c>
@@ -2855,7 +2868,7 @@
       <c r="E10" s="60"/>
     </row>
     <row r="11" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="82" t="s">
+      <c r="A11" s="84" t="s">
         <v>251</v>
       </c>
       <c r="B11" s="11" t="s">
@@ -2873,7 +2886,7 @@
       <c r="H11" s="42"/>
     </row>
     <row r="12" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="82"/>
+      <c r="A12" s="84"/>
       <c r="B12" s="11" t="s">
         <v>286</v>
       </c>
@@ -2895,7 +2908,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="82"/>
+      <c r="A13" s="84"/>
       <c r="B13" s="11" t="s">
         <v>265</v>
       </c>
@@ -2907,7 +2920,7 @@
       <c r="H13" s="42"/>
     </row>
     <row r="14" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="82" t="s">
+      <c r="A14" s="84" t="s">
         <v>277</v>
       </c>
       <c r="B14" s="11" t="s">
@@ -2927,7 +2940,7 @@
       <c r="H14" s="42"/>
     </row>
     <row r="15" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="82"/>
+      <c r="A15" s="84"/>
       <c r="B15" s="11" t="s">
         <v>94</v>
       </c>
@@ -2945,7 +2958,7 @@
       <c r="H15" s="42"/>
     </row>
     <row r="16" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="82"/>
+      <c r="A16" s="84"/>
       <c r="B16" s="11" t="s">
         <v>111</v>
       </c>
@@ -3128,9 +3141,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -3181,7 +3194,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" s="67" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="85" t="s">
         <v>127</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -3199,7 +3212,7 @@
       <c r="J2" s="66"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="83"/>
+      <c r="A3" s="85"/>
       <c r="B3" s="17" t="s">
         <v>121</v>
       </c>
@@ -3227,7 +3240,7 @@
       <c r="J3" s="31"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="83"/>
+      <c r="A4" s="85"/>
       <c r="B4" s="17" t="s">
         <v>120</v>
       </c>
@@ -3255,7 +3268,7 @@
       <c r="J4" s="31"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="83"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="17" t="s">
         <v>62</v>
       </c>
@@ -3283,7 +3296,7 @@
       <c r="J5" s="31"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="83"/>
+      <c r="A6" s="85"/>
       <c r="B6" s="78" t="s">
         <v>272</v>
       </c>
@@ -3293,7 +3306,7 @@
       <c r="I6" s="48"/>
     </row>
     <row r="7" spans="1:10" s="67" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="85" t="s">
         <v>128</v>
       </c>
       <c r="B7" s="17" t="s">
@@ -3311,7 +3324,7 @@
       <c r="J7" s="77"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="83"/>
+      <c r="A8" s="85"/>
       <c r="B8" s="17" t="s">
         <v>66</v>
       </c>
@@ -3338,7 +3351,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="83"/>
+      <c r="A9" s="85"/>
       <c r="B9" s="14" t="s">
         <v>273</v>
       </c>
@@ -3351,7 +3364,7 @@
       <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="83"/>
+      <c r="A10" s="85"/>
       <c r="B10" s="14" t="s">
         <v>227</v>
       </c>
@@ -3376,7 +3389,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="83"/>
+      <c r="A11" s="85"/>
       <c r="B11" s="14" t="s">
         <v>228</v>
       </c>
@@ -3403,7 +3416,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="83"/>
+      <c r="A12" s="85"/>
       <c r="B12" s="14" t="s">
         <v>229</v>
       </c>
@@ -3430,7 +3443,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" s="67" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="83" t="s">
+      <c r="A13" s="85" t="s">
         <v>129</v>
       </c>
       <c r="B13" s="17" t="s">
@@ -3448,7 +3461,7 @@
       <c r="J13" s="66"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="83"/>
+      <c r="A14" s="85"/>
       <c r="B14" s="17" t="s">
         <v>230</v>
       </c>
@@ -3475,7 +3488,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="83"/>
+      <c r="A15" s="85"/>
       <c r="B15" s="17" t="s">
         <v>231</v>
       </c>
@@ -3502,7 +3515,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" s="67" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="83" t="s">
+      <c r="A16" s="85" t="s">
         <v>130</v>
       </c>
       <c r="B16" s="17" t="s">
@@ -3520,7 +3533,7 @@
       <c r="J16" s="66"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="83"/>
+      <c r="A17" s="85"/>
       <c r="B17" s="17" t="s">
         <v>232</v>
       </c>
@@ -3547,7 +3560,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="83"/>
+      <c r="A18" s="85"/>
       <c r="B18" s="79" t="s">
         <v>233</v>
       </c>
@@ -3564,7 +3577,7 @@
       <c r="I18" s="5"/>
     </row>
     <row r="19" spans="1:10" s="67" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="83" t="s">
+      <c r="A19" s="85" t="s">
         <v>131</v>
       </c>
       <c r="B19" s="17" t="s">
@@ -3582,7 +3595,7 @@
       <c r="J19" s="66"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="83"/>
+      <c r="A20" s="85"/>
       <c r="B20" s="17" t="s">
         <v>234</v>
       </c>
@@ -3609,7 +3622,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="83"/>
+      <c r="A21" s="85"/>
       <c r="B21" s="17" t="s">
         <v>235</v>
       </c>
@@ -3636,7 +3649,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="83"/>
+      <c r="A22" s="85"/>
       <c r="B22" s="17" t="s">
         <v>236</v>
       </c>
@@ -3663,7 +3676,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="83"/>
+      <c r="A23" s="85"/>
       <c r="B23" s="80" t="s">
         <v>237</v>
       </c>
@@ -3688,7 +3701,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" s="67" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="83" t="s">
+      <c r="A24" s="85" t="s">
         <v>132</v>
       </c>
       <c r="B24" s="17" t="s">
@@ -3706,7 +3719,7 @@
       <c r="J24" s="66"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="83"/>
+      <c r="A25" s="85"/>
       <c r="B25" s="14" t="s">
         <v>274</v>
       </c>
@@ -3718,7 +3731,7 @@
       <c r="I25" s="5"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="83"/>
+      <c r="A26" s="85"/>
       <c r="B26" s="14" t="s">
         <v>280</v>
       </c>
@@ -3730,7 +3743,7 @@
       <c r="I26" s="5"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="84" t="s">
+      <c r="A27" s="86" t="s">
         <v>259</v>
       </c>
       <c r="B27" s="15" t="s">
@@ -3745,7 +3758,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="84"/>
+      <c r="A28" s="86"/>
       <c r="B28" s="15" t="s">
         <v>282</v>
       </c>
@@ -3758,7 +3771,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="84"/>
+      <c r="A29" s="86"/>
       <c r="B29" s="15" t="s">
         <v>283</v>
       </c>
@@ -3771,7 +3784,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="84"/>
+      <c r="A30" s="86"/>
       <c r="B30" s="15" t="s">
         <v>284</v>
       </c>
@@ -3782,7 +3795,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" s="67" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="84"/>
+      <c r="A31" s="86"/>
       <c r="B31" s="17" t="s">
         <v>245</v>
       </c>
@@ -3798,7 +3811,7 @@
       <c r="J31" s="66"/>
     </row>
     <row r="32" spans="1:10" s="67" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="83" t="s">
+      <c r="A32" s="85" t="s">
         <v>288</v>
       </c>
       <c r="B32" s="17" t="s">
@@ -3814,7 +3827,7 @@
       <c r="J32" s="66"/>
     </row>
     <row r="33" spans="1:10" s="67" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="83"/>
+      <c r="A33" s="85"/>
       <c r="B33" s="17" t="s">
         <v>290</v>
       </c>
@@ -3822,7 +3835,7 @@
       <c r="D33" s="65"/>
       <c r="E33" s="65"/>
       <c r="F33" s="28"/>
-      <c r="G33" s="87" t="s">
+      <c r="G33" s="83" t="s">
         <v>291</v>
       </c>
       <c r="H33" s="65"/>
@@ -3830,7 +3843,7 @@
       <c r="J33" s="66"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="83"/>
+      <c r="A34" s="85"/>
       <c r="B34" s="13" t="s">
         <v>292</v>
       </c>
@@ -3839,7 +3852,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="83" t="s">
+      <c r="A35" s="85" t="s">
         <v>294</v>
       </c>
       <c r="B35" s="17" t="s">
@@ -3847,16 +3860,16 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="83"/>
+      <c r="A36" s="85"/>
       <c r="B36" s="17" t="s">
         <v>290</v>
       </c>
-      <c r="G36" s="87" t="s">
+      <c r="G36" s="83" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="83"/>
+      <c r="A37" s="85"/>
       <c r="B37" s="13" t="s">
         <v>295</v>
       </c>
@@ -3981,11 +3994,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -4000,7 +4013,7 @@
     <col min="9" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="22" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
         <v>177</v>
       </c>
@@ -4026,9 +4039,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="86" t="s">
-        <v>300</v>
+    <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="88" t="s">
+        <v>303</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>216</v>
@@ -4037,8 +4050,8 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="85"/>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="88"/>
       <c r="B3" s="17" t="s">
         <v>217</v>
       </c>
@@ -4049,8 +4062,8 @@
         <v>219</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="85"/>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="88"/>
       <c r="B4" s="17" t="s">
         <v>176</v>
       </c>
@@ -4064,325 +4077,364 @@
         <v>301</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="85" t="s">
+    <row r="5" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="88" t="s">
+        <v>300</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="D5" s="82" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="87"/>
+      <c r="B6" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="D6" s="82" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="87"/>
+      <c r="B7" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="D7" s="82" t="s">
+        <v>209</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="87" t="s">
         <v>279</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B8" s="17" t="s">
         <v>173</v>
       </c>
-      <c r="D5" s="71" t="s">
+      <c r="D8" s="71" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="144" x14ac:dyDescent="0.3">
-      <c r="A6" s="85"/>
-      <c r="B6" s="17" t="s">
+    <row r="9" spans="1:8" ht="144" x14ac:dyDescent="0.3">
+      <c r="A9" s="87"/>
+      <c r="B9" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="D6" s="71" t="s">
+      <c r="D9" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E9" s="16" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="85"/>
-      <c r="B7" s="17" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="87"/>
+      <c r="B10" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="D7" s="71" t="s">
+      <c r="D10" s="71" t="s">
         <v>210</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E10" s="16" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="85"/>
-      <c r="B8" s="17" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="87"/>
+      <c r="B11" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="D8" s="71" t="s">
+      <c r="D11" s="71" t="s">
         <v>163</v>
       </c>
-      <c r="E8" s="16"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="85"/>
-      <c r="B9" s="17" t="s">
+      <c r="E11" s="16"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="87"/>
+      <c r="B12" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="D9" s="71" t="s">
+      <c r="D12" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="90" x14ac:dyDescent="0.3">
-      <c r="A10" s="85" t="s">
+    <row r="13" spans="1:8" ht="90" x14ac:dyDescent="0.3">
+      <c r="A13" s="87" t="s">
         <v>172</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B13" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="D10" s="71" t="s">
+      <c r="D13" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E13" s="16" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="85"/>
-      <c r="B11" s="17" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="87"/>
+      <c r="B14" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="D11" s="71" t="s">
+      <c r="D14" s="71" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="85"/>
-      <c r="B12" s="17" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="87"/>
+      <c r="B15" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="D12" s="71" t="s">
+      <c r="D15" s="71" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="85"/>
-      <c r="B13" s="17" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="87"/>
+      <c r="B16" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="D13" s="71" t="s">
+      <c r="D16" s="71" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="85"/>
-      <c r="B14" s="17" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="87"/>
+      <c r="B17" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="D14" s="71" t="s">
+      <c r="D17" s="71" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="85"/>
-      <c r="B15" s="56" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="87"/>
+      <c r="B18" s="56" t="s">
         <v>225</v>
       </c>
-      <c r="D15" s="71" t="s">
+      <c r="D18" s="71" t="s">
         <v>213</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E18" s="16" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="85" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="87" t="s">
         <v>296</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B19" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="D16" s="71" t="s">
+      <c r="D19" s="71" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="85"/>
-      <c r="B17" s="17" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="87"/>
+      <c r="B20" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C20" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="D17" s="71" t="s">
+      <c r="D20" s="71" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="54" x14ac:dyDescent="0.3">
-      <c r="A18" s="85"/>
-      <c r="B18" s="17" t="s">
+    <row r="21" spans="1:5" ht="54" x14ac:dyDescent="0.3">
+      <c r="A21" s="87"/>
+      <c r="B21" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C21" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="D18" s="71" t="s">
+      <c r="D21" s="71" t="s">
         <v>223</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E21" s="16" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="85"/>
-      <c r="B19" s="17" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="87"/>
+      <c r="B22" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="D19" s="71" t="s">
+      <c r="D22" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E22" s="5" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="90" x14ac:dyDescent="0.3">
-      <c r="A20" s="85"/>
-      <c r="B20" s="17" t="s">
+    <row r="23" spans="1:5" ht="90" x14ac:dyDescent="0.3">
+      <c r="A23" s="87"/>
+      <c r="B23" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="D20" s="71" t="s">
+      <c r="D23" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E23" s="16" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="85"/>
-      <c r="B21" s="17" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="87"/>
+      <c r="B24" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="D21" s="71" t="s">
+      <c r="D24" s="71" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="85"/>
-      <c r="B22" s="17" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="87"/>
+      <c r="B25" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="D22" s="71" t="s">
+      <c r="D25" s="71" t="s">
         <v>161</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="85"/>
-      <c r="B23" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="D23" s="71" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="85"/>
-      <c r="B24" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="D24" s="71" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="85"/>
-      <c r="B25" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="D25" s="71" t="s">
-        <v>56</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="144" x14ac:dyDescent="0.3">
-      <c r="A26" s="85"/>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="87"/>
       <c r="B26" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="D26" s="71" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="87"/>
+      <c r="B27" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D27" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="87"/>
+      <c r="B28" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="D28" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+      <c r="A29" s="87"/>
+      <c r="B29" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="D26" s="71" t="s">
+      <c r="D29" s="71" t="s">
         <v>171</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E29" s="16" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="85"/>
-      <c r="B27" s="17" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="87"/>
+      <c r="B30" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="D27" s="71" t="s">
+      <c r="D30" s="71" t="s">
         <v>171</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E30" s="16" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="85"/>
-      <c r="B28" s="17" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="87"/>
+      <c r="B31" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="D28" s="71" t="s">
+      <c r="D31" s="71" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="90" x14ac:dyDescent="0.3">
-      <c r="A29" s="85"/>
-      <c r="B29" s="17" t="s">
+    <row r="32" spans="1:5" ht="90" x14ac:dyDescent="0.3">
+      <c r="A32" s="87"/>
+      <c r="B32" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="D29" s="71" t="s">
+      <c r="D32" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E32" s="16" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="85"/>
-      <c r="B30" s="17" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="87"/>
+      <c r="B33" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="D30" s="71" t="s">
+      <c r="D33" s="71" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="108" x14ac:dyDescent="0.3">
-      <c r="A31" s="85" t="s">
+    <row r="34" spans="1:5" ht="108" x14ac:dyDescent="0.3">
+      <c r="A34" s="87" t="s">
         <v>297</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B34" s="17" t="s">
         <v>298</v>
       </c>
-      <c r="D31" s="71" t="s">
+      <c r="D34" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="E34" s="16" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="85"/>
-      <c r="B32" s="17" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="87"/>
+      <c r="B35" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="D32" s="71" t="s">
+      <c r="D35" s="71" t="s">
         <v>110</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A16:A30"/>
+  <mergeCells count="6">
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A8:A12"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="A19:A33"/>
     <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/健康档案字段/基础字段/健康档案字段 v4.0.xlsx
+++ b/健康档案字段/基础字段/健康档案字段 v4.0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="患者档案" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="310">
   <si>
     <t>字段名</t>
     <rPh sb="0" eb="1">
@@ -1666,50 +1666,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">缺血性脑卒中
-出血性脑卒中
-其他脑血管疾病
-主动脉夹层
-冠心病
-心力衰竭
-肾功能不全
-糖尿病
-</t>
+    <t xml:space="preserve">             </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缺血性脑卒中</t>
     <rPh sb="0" eb="1">
       <t>que'xue'xing</t>
     </rPh>
     <rPh sb="3" eb="4">
       <t>nao'zhu'zhong</t>
     </rPh>
-    <rPh sb="14" eb="15">
-      <t>qi'ta</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>nao'xue'guan</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ji'bing</t>
-    </rPh>
-    <rPh sb="43" eb="44">
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出血性脑卒中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他脑血管疾病</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主动脉夹层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冠心病</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心力衰竭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肾功能不全</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>糖尿病</t>
+    <rPh sb="0" eb="1">
       <t>tang'niao'bing</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">             </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>缺血性脑卒中</t>
-    <rPh sb="0" eb="1">
-      <t>que'xue'xing</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>nao'zhu'zhong</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3994,11 +3995,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -4041,7 +4042,7 @@
     </row>
     <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="88" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>216</v>
@@ -4074,12 +4075,12 @@
         <v>209</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="88" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>216</v>
@@ -4088,7 +4089,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="32" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="87"/>
       <c r="B6" s="17" t="s">
         <v>217</v>
@@ -4100,7 +4101,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="87"/>
       <c r="B7" s="17" t="s">
         <v>176</v>
@@ -4112,329 +4113,602 @@
         <v>209</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="87" t="s">
-        <v>279</v>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="88" t="s">
+        <v>302</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="D8" s="71" t="s">
+        <v>216</v>
+      </c>
+      <c r="D8" s="82" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="144" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="87"/>
       <c r="B9" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="D9" s="71" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>183</v>
+        <v>217</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="D9" s="82" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="87"/>
       <c r="B10" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="D10" s="71" t="s">
-        <v>210</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>180</v>
+        <v>176</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="D10" s="82" t="s">
+        <v>209</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="87"/>
+      <c r="A11" s="88" t="s">
+        <v>304</v>
+      </c>
       <c r="B11" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="D11" s="71" t="s">
-        <v>163</v>
-      </c>
-      <c r="E11" s="16"/>
+        <v>216</v>
+      </c>
+      <c r="D11" s="82" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="87"/>
       <c r="B12" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="D12" s="71" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="90" x14ac:dyDescent="0.3">
-      <c r="A13" s="87" t="s">
-        <v>172</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="D12" s="82" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="87"/>
       <c r="B13" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="D13" s="71" t="s">
-        <v>47</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>204</v>
+        <v>176</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="D13" s="82" t="s">
+        <v>209</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="87"/>
+      <c r="A14" s="88" t="s">
+        <v>305</v>
+      </c>
       <c r="B14" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="D14" s="71" t="s">
-        <v>211</v>
+        <v>216</v>
+      </c>
+      <c r="D14" s="82" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="87"/>
       <c r="B15" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="D15" s="71" t="s">
-        <v>212</v>
+        <v>217</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="D15" s="82" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="87"/>
       <c r="B16" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="D16" s="71" t="s">
-        <v>110</v>
+        <v>176</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="D16" s="82" t="s">
+        <v>209</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="87"/>
+      <c r="A17" s="88" t="s">
+        <v>306</v>
+      </c>
       <c r="B17" s="17" t="s">
-        <v>186</v>
-      </c>
-      <c r="D17" s="71" t="s">
-        <v>110</v>
+        <v>216</v>
+      </c>
+      <c r="D17" s="82" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="87"/>
-      <c r="B18" s="56" t="s">
-        <v>225</v>
-      </c>
-      <c r="D18" s="71" t="s">
-        <v>213</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>189</v>
+      <c r="B18" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="D18" s="82" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="87" t="s">
-        <v>296</v>
-      </c>
+      <c r="A19" s="87"/>
       <c r="B19" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="D19" s="71" t="s">
-        <v>214</v>
+        <v>176</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="D19" s="82" t="s">
+        <v>209</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="87"/>
+      <c r="A20" s="88" t="s">
+        <v>307</v>
+      </c>
       <c r="B20" s="17" t="s">
-        <v>190</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="D20" s="71" t="s">
+        <v>216</v>
+      </c>
+      <c r="D20" s="82" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="54" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="87"/>
       <c r="B21" s="17" t="s">
-        <v>191</v>
+        <v>217</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="D21" s="71" t="s">
-        <v>223</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>224</v>
+        <v>218</v>
+      </c>
+      <c r="D21" s="82" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="87"/>
       <c r="B22" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="D22" s="71" t="s">
-        <v>56</v>
+        <v>176</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="D22" s="82" t="s">
+        <v>209</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="90" x14ac:dyDescent="0.3">
-      <c r="A23" s="87"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="88" t="s">
+        <v>308</v>
+      </c>
       <c r="B23" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="D23" s="71" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>208</v>
+        <v>216</v>
+      </c>
+      <c r="D23" s="82" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="87"/>
       <c r="B24" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="D24" s="71" t="s">
-        <v>110</v>
+        <v>217</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="D24" s="82" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="87"/>
       <c r="B25" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="D25" s="71" t="s">
-        <v>161</v>
+        <v>176</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="D25" s="82" t="s">
+        <v>209</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>175</v>
+        <v>300</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="87"/>
+      <c r="A26" s="88" t="s">
+        <v>309</v>
+      </c>
       <c r="B26" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="D26" s="71" t="s">
+        <v>176</v>
+      </c>
+      <c r="D26" s="82" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="87"/>
+      <c r="A27" s="88"/>
       <c r="B27" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="D27" s="71" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>175</v>
+        <v>217</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="D27" s="82" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="87"/>
+      <c r="A28" s="88"/>
       <c r="B28" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="D28" s="71" t="s">
-        <v>56</v>
+        <v>176</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>220</v>
+      </c>
+      <c r="D28" s="82" t="s">
+        <v>209</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="144" x14ac:dyDescent="0.3">
-      <c r="A29" s="87"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="87" t="s">
+        <v>279</v>
+      </c>
       <c r="B29" s="17" t="s">
-        <v>226</v>
+        <v>173</v>
       </c>
       <c r="D29" s="71" t="s">
-        <v>171</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="144" x14ac:dyDescent="0.3">
       <c r="A30" s="87"/>
       <c r="B30" s="17" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="D30" s="71" t="s">
-        <v>171</v>
+        <v>47</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>240</v>
+        <v>183</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="87"/>
       <c r="B31" s="17" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="D31" s="71" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="90" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="87"/>
       <c r="B32" s="17" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="D32" s="71" t="s">
-        <v>47</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>207</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="E32" s="16"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="87"/>
       <c r="B33" s="17" t="s">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="D33" s="71" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="108" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="90" x14ac:dyDescent="0.3">
       <c r="A34" s="87" t="s">
-        <v>297</v>
+        <v>172</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>298</v>
+        <v>187</v>
       </c>
       <c r="D34" s="71" t="s">
         <v>47</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="87"/>
       <c r="B35" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="D35" s="71" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="87"/>
+      <c r="B36" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="D36" s="71" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="87"/>
+      <c r="B37" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="D37" s="71" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="87"/>
+      <c r="B38" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="D38" s="71" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="87"/>
+      <c r="B39" s="56" t="s">
+        <v>225</v>
+      </c>
+      <c r="D39" s="71" t="s">
+        <v>213</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="87" t="s">
+        <v>296</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="D40" s="71" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="87"/>
+      <c r="B41" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="D41" s="71" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="54" x14ac:dyDescent="0.3">
+      <c r="A42" s="87"/>
+      <c r="B42" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="D42" s="71" t="s">
+        <v>223</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="87"/>
+      <c r="B43" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="D43" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="90" x14ac:dyDescent="0.3">
+      <c r="A44" s="87"/>
+      <c r="B44" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="D44" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="87"/>
+      <c r="B45" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="D45" s="71" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="87"/>
+      <c r="B46" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="D46" s="71" t="s">
+        <v>161</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="87"/>
+      <c r="B47" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="D47" s="71" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="87"/>
+      <c r="B48" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D48" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="87"/>
+      <c r="B49" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="D49" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+      <c r="A50" s="87"/>
+      <c r="B50" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="D50" s="71" t="s">
+        <v>171</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="87"/>
+      <c r="B51" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="D51" s="71" t="s">
+        <v>171</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="87"/>
+      <c r="B52" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="D52" s="71" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="90" x14ac:dyDescent="0.3">
+      <c r="A53" s="87"/>
+      <c r="B53" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="D53" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="87"/>
+      <c r="B54" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="D54" s="71" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="108" x14ac:dyDescent="0.3">
+      <c r="A55" s="87" t="s">
+        <v>297</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="D55" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="87"/>
+      <c r="B56" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="D35" s="71" t="s">
+      <c r="D56" s="71" t="s">
         <v>110</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A8:A12"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="A19:A33"/>
+  <mergeCells count="13">
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A29:A33"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A40:A54"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4445,8 +4719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4491,7 +4765,7 @@
         <v>268</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F2" s="41"/>
       <c r="G2" s="42"/>

--- a/健康档案字段/基础字段/健康档案字段 v4.0.xlsx
+++ b/健康档案字段/基础字段/健康档案字段 v4.0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="患者档案" sheetId="1" r:id="rId1"/>
@@ -2395,8 +2395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2680,7 +2680,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -3998,7 +3998,7 @@
   <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
@@ -4719,7 +4719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>

--- a/健康档案字段/基础字段/健康档案字段 v4.0.xlsx
+++ b/健康档案字段/基础字段/健康档案字段 v4.0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="患者档案" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="312">
   <si>
     <t>字段名</t>
     <rPh sb="0" eb="1">
@@ -1711,6 +1711,32 @@
     <t>糖尿病</t>
     <rPh sb="0" eb="1">
       <t>tang'niao'bing</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>致死的主要诊断</t>
+    <rPh sb="0" eb="1">
+      <t>zhi'si'd</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhu'yao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhen'duan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他疾病诊断</t>
+    <rPh sb="0" eb="1">
+      <t>qi'ta</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'bing</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhen'duan</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1900,7 +1926,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2115,6 +2141,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2395,7 +2429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -3995,11 +4029,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -4427,7 +4461,7 @@
       </c>
       <c r="E32" s="16"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="87"/>
       <c r="B33" s="17" t="s">
         <v>178</v>
@@ -4439,7 +4473,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="90" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="90" x14ac:dyDescent="0.3">
       <c r="A34" s="87" t="s">
         <v>172</v>
       </c>
@@ -4453,7 +4487,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="87"/>
       <c r="B35" s="17" t="s">
         <v>188</v>
@@ -4462,7 +4496,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="87"/>
       <c r="B36" s="17" t="s">
         <v>185</v>
@@ -4471,7 +4505,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="87"/>
       <c r="B37" s="17" t="s">
         <v>184</v>
@@ -4480,7 +4514,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="87"/>
       <c r="B38" s="17" t="s">
         <v>186</v>
@@ -4489,7 +4523,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="87"/>
       <c r="B39" s="56" t="s">
         <v>225</v>
@@ -4501,7 +4535,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="87" t="s">
         <v>296</v>
       </c>
@@ -4512,7 +4546,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="87"/>
       <c r="B41" s="17" t="s">
         <v>190</v>
@@ -4524,7 +4558,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="54" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="54" x14ac:dyDescent="0.3">
       <c r="A42" s="87"/>
       <c r="B42" s="17" t="s">
         <v>191</v>
@@ -4539,67 +4573,74 @@
         <v>224</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" s="92" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="87"/>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="89" t="s">
         <v>192</v>
       </c>
-      <c r="D43" s="71" t="s">
+      <c r="C43" s="89"/>
+      <c r="D43" s="90" t="s">
         <v>56</v>
       </c>
-      <c r="E43" s="5" t="s">
+      <c r="E43" s="12" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="90" x14ac:dyDescent="0.3">
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="91"/>
+    </row>
+    <row r="44" spans="1:8" s="92" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="87"/>
-      <c r="B44" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="D44" s="71" t="s">
-        <v>47</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B44" s="89" t="s">
+        <v>310</v>
+      </c>
+      <c r="C44" s="89"/>
+      <c r="D44" s="90"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="91"/>
+    </row>
+    <row r="45" spans="1:8" s="92" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="87"/>
-      <c r="B45" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="D45" s="71" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B45" s="89" t="s">
+        <v>311</v>
+      </c>
+      <c r="C45" s="89"/>
+      <c r="D45" s="90"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="91"/>
+    </row>
+    <row r="46" spans="1:8" ht="90" x14ac:dyDescent="0.3">
       <c r="A46" s="87"/>
       <c r="B46" s="17" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D46" s="71" t="s">
-        <v>161</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="87"/>
       <c r="B47" s="17" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D47" s="71" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="87"/>
       <c r="B48" s="17" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D48" s="71" t="s">
-        <v>56</v>
+        <v>161</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>175</v>
@@ -4608,98 +4649,119 @@
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="87"/>
       <c r="B49" s="17" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D49" s="71" t="s">
-        <v>56</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="87"/>
       <c r="B50" s="17" t="s">
-        <v>226</v>
+        <v>198</v>
       </c>
       <c r="D50" s="71" t="s">
-        <v>171</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>205</v>
+        <v>56</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="87"/>
       <c r="B51" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D51" s="71" t="s">
-        <v>171</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="144" x14ac:dyDescent="0.3">
       <c r="A52" s="87"/>
       <c r="B52" s="17" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="D52" s="71" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="90" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="87"/>
       <c r="B53" s="17" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D53" s="71" t="s">
-        <v>47</v>
+        <v>171</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>207</v>
+        <v>240</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="87"/>
       <c r="B54" s="17" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D54" s="71" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="108" x14ac:dyDescent="0.3">
-      <c r="A55" s="87" t="s">
-        <v>297</v>
-      </c>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="90" x14ac:dyDescent="0.3">
+      <c r="A55" s="87"/>
       <c r="B55" s="17" t="s">
-        <v>298</v>
+        <v>202</v>
       </c>
       <c r="D55" s="71" t="s">
         <v>47</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="87"/>
       <c r="B56" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="D56" s="71" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="108" x14ac:dyDescent="0.3">
+      <c r="A57" s="87" t="s">
+        <v>297</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="D57" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="87"/>
+      <c r="B58" s="17" t="s">
         <v>299</v>
       </c>
-      <c r="D56" s="71" t="s">
+      <c r="D58" s="71" t="s">
         <v>110</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A57:A58"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A40:A54"/>
+    <mergeCell ref="A40:A56"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A26:A28"/>

--- a/健康档案字段/基础字段/健康档案字段 v4.0.xlsx
+++ b/健康档案字段/基础字段/健康档案字段 v4.0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="患者档案" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="295">
   <si>
     <t>字段名</t>
     <rPh sb="0" eb="1">
@@ -774,10 +774,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>S2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0~99.99</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -826,10 +822,6 @@
     <rPh sb="4" eb="5">
       <t>ming</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -991,111 +983,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>死亡是否被目击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:是;2:否;</t>
-    <rPh sb="2" eb="3">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>fou</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>信息来源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>信息来源其他项</t>
-    <rPh sb="4" eb="5">
-      <t>qi'ta</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>xiang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否明确由急性症状发作到死亡的时间</t>
-    <rPh sb="0" eb="1">
-      <t>shi'fou</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ming'que</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>明确由急性症状发作到死亡的时间</t>
-  </si>
-  <si>
-    <t>死亡前受试者是否曾医院就诊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>死亡前受试者是否曾住院治疗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>心血管原因</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他死亡原因</t>
-    <rPh sb="0" eb="1">
-      <t>qi'ta</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>si'wang</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>yuan'yin</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>死亡证明材料</t>
-    <rPh sb="0" eb="1">
-      <t>si'wang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他死亡证明材料</t>
-    <rPh sb="0" eb="1">
-      <t>qi'ta</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1:受试者;
 2:受试者家属;
 3:当地医师;
 4:受试者工作单位;
 5:受试者详细联系资料表中的联系人;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:脑卒中;
-2:高血压脑病;
-3:心血管原因;
-4:急、慢性肾衰;
-5:糖尿病及其相关并发症;
-6:癌症;
-7:其他原因;
-8:不详；</t>
-    <rPh sb="58" eb="59">
-      <t>ta</t>
-    </rPh>
-    <rPh sb="65" eb="66">
-      <t>bu'xiang</t>
-    </rPh>
-    <rPh sb="66" eb="67">
-      <t>xiang</t>
-    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1111,28 +1003,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1:死亡证明;
-2:尸检记录;
-3:急诊记录;
-4:户籍管理机关证明;
-5:其他；</t>
-    <rPh sb="38" eb="39">
-      <t>qi'ta</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:家庭成员; 
-2:目击者;
-3:当地医生;
-4医疗机构信息记录;
-5:其他;</t>
-    <rPh sb="37" eb="38">
-      <t>qi'ta</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>S2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1157,104 +1027,92 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>填表日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发病日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DE04.01.018.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DE05.10.121.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DE02.01.035.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DE02.01.034.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01:医院病房;00:急诊室; 03:家中; 04:外地;  05:家庭病床 ;06:敬老院;07:来院已死;99:其他;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受试者的生存状况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尿比重</t>
+  </si>
+  <si>
+    <t>尿红细胞数</t>
+  </si>
+  <si>
+    <t>尿白细胞数</t>
+  </si>
+  <si>
+    <t>血清谷丙转氨酶值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血清谷草转氨酶值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血尿素氮检测值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尿肌酐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>甘油三酯值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血清低密度脂蛋白胆固醇检测值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血清高密度脂蛋白胆固醇检测值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总胆固醇值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>S1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>填表日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发病日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DE04.01.018.00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DE05.10.121.00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DE02.01.035.00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DE02.01.034.00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01:医院病房;00:急诊室; 03:家中; 04:外地;  05:家庭病床 ;06:敬老院;07:来院已死;99:其他;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>受试者的生存状况</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>死亡原因</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尿比重</t>
-  </si>
-  <si>
-    <t>尿红细胞数</t>
-  </si>
-  <si>
-    <t>尿白细胞数</t>
-  </si>
-  <si>
-    <t>血清谷丙转氨酶值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血清谷草转氨酶值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血尿素氮检测值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尿肌酐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>甘油三酯值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血清低密度脂蛋白胆固醇检测值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血清高密度脂蛋白胆固醇检测值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总胆固醇值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>戒烟前吸烟年限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1715,7 +1573,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>致死的主要诊断</t>
+    <t>其他疾病诊断</t>
+    <rPh sb="0" eb="1">
+      <t>qi'ta</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ji'bing</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhen'duan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发病到死亡的时间间隔</t>
+    <rPh sb="0" eb="1">
+      <t>fa'bing</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dao'si'wang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>de</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shi'jian</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jian'ge</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死者生前工作单位</t>
+    <rPh sb="0" eb="1">
+      <t>si'zhe</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>sheng'qian</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>gong'zuo'dan'wei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以联系的家属姓名</t>
+    <rPh sb="0" eb="1">
+      <t>ke'yi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>lian'xi</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>de</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jia'shu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xing'ming</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>致死的主要疾病诊断</t>
     <rPh sb="0" eb="1">
       <t>zhi'si'd</t>
     </rPh>
@@ -1723,19 +1645,9 @@
       <t>zhu'yao</t>
     </rPh>
     <rPh sb="5" eb="6">
-      <t>zhen'duan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他疾病诊断</t>
-    <rPh sb="0" eb="1">
-      <t>qi'ta</t>
-    </rPh>
-    <rPh sb="2" eb="3">
       <t>ji'bing</t>
     </rPh>
-    <rPh sb="4" eb="5">
+    <rPh sb="7" eb="8">
       <t>zhen'duan</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1926,7 +1838,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2125,6 +2037,9 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2141,14 +2056,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2429,8 +2336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2491,7 +2398,7 @@
         <v>32</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="G3" s="31"/>
     </row>
@@ -2644,22 +2551,22 @@
     </row>
     <row r="15" spans="1:8" ht="18" x14ac:dyDescent="0.3">
       <c r="A15" s="58" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="C15" s="9"/>
     </row>
     <row r="16" spans="1:8" ht="18" x14ac:dyDescent="0.3">
       <c r="A16" s="58" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="C16" s="9"/>
     </row>
     <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.3">
       <c r="A17" s="58" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="18" x14ac:dyDescent="0.3">
@@ -2715,7 +2622,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -2788,7 +2695,7 @@
     </row>
     <row r="4" spans="1:9" s="20" customFormat="1" ht="54" x14ac:dyDescent="0.3">
       <c r="A4" s="68" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>24</v>
@@ -2805,11 +2712,11 @@
       <c r="H4" s="42"/>
     </row>
     <row r="5" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="84" t="s">
-        <v>252</v>
+      <c r="A5" s="85" t="s">
+        <v>232</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>151</v>
@@ -2825,7 +2732,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="84"/>
+      <c r="A6" s="85"/>
       <c r="B6" s="10" t="s">
         <v>148</v>
       </c>
@@ -2840,7 +2747,7 @@
     </row>
     <row r="7" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="63" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>152</v>
@@ -2857,11 +2764,11 @@
       <c r="H7" s="31"/>
     </row>
     <row r="8" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="84" t="s">
-        <v>250</v>
+      <c r="A8" s="85" t="s">
+        <v>230</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>95</v>
@@ -2875,7 +2782,7 @@
       <c r="H8" s="31"/>
     </row>
     <row r="9" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="84"/>
+      <c r="A9" s="85"/>
       <c r="B9" s="11" t="s">
         <v>102</v>
       </c>
@@ -2893,18 +2800,18 @@
       <c r="H9" s="42"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="84"/>
+      <c r="A10" s="85"/>
       <c r="B10" s="15" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="D10" s="61" t="s">
-        <v>248</v>
+        <v>228</v>
       </c>
       <c r="E10" s="60"/>
     </row>
     <row r="11" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="84" t="s">
-        <v>251</v>
+      <c r="A11" s="85" t="s">
+        <v>231</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>101</v>
@@ -2921,9 +2828,9 @@
       <c r="H11" s="42"/>
     </row>
     <row r="12" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="84"/>
+      <c r="A12" s="85"/>
       <c r="B12" s="11" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>103</v>
@@ -2932,20 +2839,20 @@
         <v>104</v>
       </c>
       <c r="E12" s="44" t="s">
-        <v>287</v>
+        <v>267</v>
       </c>
       <c r="F12" s="41"/>
       <c r="G12" s="41" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="H12" s="42" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="84"/>
+      <c r="A13" s="85"/>
       <c r="B13" s="11" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="70"/>
@@ -2955,8 +2862,8 @@
       <c r="H13" s="42"/>
     </row>
     <row r="14" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="84" t="s">
-        <v>277</v>
+      <c r="A14" s="85" t="s">
+        <v>257</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>105</v>
@@ -2975,7 +2882,7 @@
       <c r="H14" s="42"/>
     </row>
     <row r="15" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="84"/>
+      <c r="A15" s="85"/>
       <c r="B15" s="11" t="s">
         <v>94</v>
       </c>
@@ -2993,7 +2900,7 @@
       <c r="H15" s="42"/>
     </row>
     <row r="16" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="84"/>
+      <c r="A16" s="85"/>
       <c r="B16" s="11" t="s">
         <v>111</v>
       </c>
@@ -3010,13 +2917,13 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="76" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="E17" s="44" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -3116,13 +3023,13 @@
     </row>
     <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.3">
       <c r="A5" s="62" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="C5" s="61" t="s">
         <v>81</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.3">
@@ -3130,13 +3037,13 @@
         <v>133</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="C6" s="57" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="5" customFormat="1" ht="18" x14ac:dyDescent="0.3">
@@ -3153,17 +3060,17 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -3177,8 +3084,8 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -3210,7 +3117,7 @@
         <v>16</v>
       </c>
       <c r="E1" s="47" t="s">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="F1" s="47" t="s">
         <v>57</v>
@@ -3229,17 +3136,17 @@
       </c>
     </row>
     <row r="2" spans="1:10" s="67" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="86" t="s">
         <v>127</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="C2" s="65"/>
       <c r="D2" s="65"/>
       <c r="E2" s="65"/>
       <c r="F2" s="28" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="G2" s="65"/>
       <c r="H2" s="65"/>
@@ -3247,7 +3154,7 @@
       <c r="J2" s="66"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="85"/>
+      <c r="A3" s="86"/>
       <c r="B3" s="17" t="s">
         <v>121</v>
       </c>
@@ -3275,7 +3182,7 @@
       <c r="J3" s="31"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="85"/>
+      <c r="A4" s="86"/>
       <c r="B4" s="17" t="s">
         <v>120</v>
       </c>
@@ -3303,7 +3210,7 @@
       <c r="J4" s="31"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="85"/>
+      <c r="A5" s="86"/>
       <c r="B5" s="17" t="s">
         <v>62</v>
       </c>
@@ -3331,9 +3238,9 @@
       <c r="J5" s="31"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="85"/>
+      <c r="A6" s="86"/>
       <c r="B6" s="78" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="E6" s="48"/>
       <c r="F6" s="5"/>
@@ -3341,17 +3248,17 @@
       <c r="I6" s="48"/>
     </row>
     <row r="7" spans="1:10" s="67" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="85" t="s">
+      <c r="A7" s="86" t="s">
         <v>128</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="C7" s="64"/>
       <c r="D7" s="64"/>
       <c r="E7" s="64"/>
       <c r="F7" s="28" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="G7" s="64"/>
       <c r="H7" s="64"/>
@@ -3359,7 +3266,7 @@
       <c r="J7" s="77"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="85"/>
+      <c r="A8" s="86"/>
       <c r="B8" s="17" t="s">
         <v>66</v>
       </c>
@@ -3386,9 +3293,9 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="85"/>
+      <c r="A9" s="86"/>
       <c r="B9" s="14" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -3399,9 +3306,9 @@
       <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="85"/>
+      <c r="A10" s="86"/>
       <c r="B10" s="14" t="s">
-        <v>227</v>
+        <v>208</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>117</v>
@@ -3424,9 +3331,9 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="85"/>
+      <c r="A11" s="86"/>
       <c r="B11" s="14" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>122</v>
@@ -3451,9 +3358,9 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="85"/>
+      <c r="A12" s="86"/>
       <c r="B12" s="14" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>123</v>
@@ -3478,17 +3385,17 @@
       </c>
     </row>
     <row r="13" spans="1:10" s="67" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="85" t="s">
+      <c r="A13" s="86" t="s">
         <v>129</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="C13" s="65"/>
       <c r="D13" s="65"/>
       <c r="E13" s="65"/>
       <c r="F13" s="28" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="G13" s="65"/>
       <c r="H13" s="65"/>
@@ -3496,9 +3403,9 @@
       <c r="J13" s="66"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="85"/>
+      <c r="A14" s="86"/>
       <c r="B14" s="17" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>69</v>
@@ -3523,9 +3430,9 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="85"/>
+      <c r="A15" s="86"/>
       <c r="B15" s="17" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>70</v>
@@ -3540,7 +3447,7 @@
         <v>36</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>71</v>
@@ -3550,17 +3457,17 @@
       </c>
     </row>
     <row r="16" spans="1:10" s="67" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="85" t="s">
+      <c r="A16" s="86" t="s">
         <v>130</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="C16" s="65"/>
       <c r="D16" s="65"/>
       <c r="E16" s="65"/>
       <c r="F16" s="28" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="G16" s="65"/>
       <c r="H16" s="65"/>
@@ -3568,9 +3475,9 @@
       <c r="J16" s="66"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="85"/>
+      <c r="A17" s="86"/>
       <c r="B17" s="17" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>68</v>
@@ -3585,7 +3492,7 @@
         <v>36</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>67</v>
@@ -3595,16 +3502,16 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="85"/>
+      <c r="A18" s="86"/>
       <c r="B18" s="79" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="21" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>116</v>
@@ -3612,17 +3519,17 @@
       <c r="I18" s="5"/>
     </row>
     <row r="19" spans="1:10" s="67" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="85" t="s">
+      <c r="A19" s="86" t="s">
         <v>131</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="C19" s="65"/>
       <c r="D19" s="65"/>
       <c r="E19" s="65"/>
       <c r="F19" s="28" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="G19" s="65"/>
       <c r="H19" s="65"/>
@@ -3630,9 +3537,9 @@
       <c r="J19" s="66"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="85"/>
+      <c r="A20" s="86"/>
       <c r="B20" s="17" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>74</v>
@@ -3647,7 +3554,7 @@
         <v>36</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>12</v>
@@ -3657,9 +3564,9 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="85"/>
+      <c r="A21" s="86"/>
       <c r="B21" s="17" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>75</v>
@@ -3674,7 +3581,7 @@
         <v>36</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H21" s="5" t="s">
         <v>78</v>
@@ -3684,9 +3591,9 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="85"/>
+      <c r="A22" s="86"/>
       <c r="B22" s="17" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>76</v>
@@ -3701,7 +3608,7 @@
         <v>36</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H22" s="5" t="s">
         <v>79</v>
@@ -3711,9 +3618,9 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="85"/>
+      <c r="A23" s="86"/>
       <c r="B23" s="80" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>77</v>
@@ -3736,17 +3643,17 @@
       </c>
     </row>
     <row r="24" spans="1:10" s="67" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="85" t="s">
+      <c r="A24" s="86" t="s">
         <v>132</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="C24" s="65"/>
       <c r="D24" s="65"/>
       <c r="E24" s="65"/>
       <c r="F24" s="28" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="G24" s="65"/>
       <c r="H24" s="65"/>
@@ -3754,9 +3661,9 @@
       <c r="J24" s="66"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="85"/>
+      <c r="A25" s="86"/>
       <c r="B25" s="14" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -3766,9 +3673,9 @@
       <c r="I25" s="5"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="85"/>
+      <c r="A26" s="86"/>
       <c r="B26" s="14" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -3778,67 +3685,67 @@
       <c r="I26" s="5"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="86" t="s">
-        <v>259</v>
+      <c r="A27" s="87" t="s">
+        <v>239</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="D27"/>
       <c r="G27" s="15" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="86"/>
+      <c r="A28" s="87"/>
       <c r="B28" s="15" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="D28"/>
       <c r="G28" s="15" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="86"/>
+      <c r="A29" s="87"/>
       <c r="B29" s="15" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>257</v>
+        <v>237</v>
       </c>
       <c r="D29"/>
       <c r="G29" s="15" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="86"/>
+      <c r="A30" s="87"/>
       <c r="B30" s="15" t="s">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30"/>
       <c r="G30" s="15" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31" spans="1:10" s="67" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="86"/>
+      <c r="A31" s="87"/>
       <c r="B31" s="17" t="s">
-        <v>245</v>
+        <v>225</v>
       </c>
       <c r="C31" s="65"/>
       <c r="D31" s="65"/>
       <c r="E31" s="65"/>
       <c r="F31" s="28" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="G31" s="65"/>
       <c r="H31" s="65"/>
@@ -3846,11 +3753,11 @@
       <c r="J31" s="66"/>
     </row>
     <row r="32" spans="1:10" s="67" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="85" t="s">
-        <v>288</v>
+      <c r="A32" s="86" t="s">
+        <v>268</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="C32" s="65"/>
       <c r="D32" s="65"/>
@@ -3862,51 +3769,51 @@
       <c r="J32" s="66"/>
     </row>
     <row r="33" spans="1:10" s="67" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="85"/>
+      <c r="A33" s="86"/>
       <c r="B33" s="17" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="C33" s="65"/>
       <c r="D33" s="65"/>
       <c r="E33" s="65"/>
       <c r="F33" s="28"/>
       <c r="G33" s="83" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="H33" s="65"/>
       <c r="I33" s="65"/>
       <c r="J33" s="66"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="85"/>
+      <c r="A34" s="86"/>
       <c r="B34" s="13" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="85" t="s">
-        <v>294</v>
+      <c r="A35" s="86" t="s">
+        <v>274</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="85"/>
+      <c r="A36" s="86"/>
       <c r="B36" s="17" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="G36" s="83" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="85"/>
+      <c r="A37" s="86"/>
       <c r="B37" s="13" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -3932,7 +3839,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3971,11 +3878,11 @@
     </row>
     <row r="2" spans="1:8" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="54" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -3987,7 +3894,7 @@
         <v>142</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>110</v>
@@ -3996,7 +3903,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="31" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.3">
@@ -4004,7 +3911,7 @@
         <v>143</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>29</v>
@@ -4013,12 +3920,12 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="52" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="74" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -4029,11 +3936,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -4042,7 +3949,7 @@
     <col min="2" max="2" width="32.6640625" style="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="17" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.83203125" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.33203125" style="5" customWidth="1"/>
     <col min="6" max="7" width="5.1640625" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.1640625" style="31" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="10.83203125" style="3"/>
@@ -4050,7 +3957,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B1" s="39" t="s">
         <v>0</v>
@@ -4075,693 +3982,570 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="88" t="s">
-        <v>302</v>
+      <c r="A2" s="89" t="s">
+        <v>282</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="D2" s="71" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="88"/>
+      <c r="A3" s="89"/>
       <c r="B3" s="17" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="D3" s="71" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="88"/>
+      <c r="A4" s="89"/>
       <c r="B4" s="17" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="D4" s="71" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="88" t="s">
-        <v>303</v>
+      <c r="A5" s="89" t="s">
+        <v>283</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="D5" s="82" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="87"/>
+      <c r="A6" s="88"/>
       <c r="B6" s="17" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="D6" s="82" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="87"/>
+      <c r="A7" s="88"/>
       <c r="B7" s="17" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="D7" s="82" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="88" t="s">
-        <v>302</v>
+      <c r="A8" s="89" t="s">
+        <v>282</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="D8" s="82" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="87"/>
+      <c r="A9" s="88"/>
       <c r="B9" s="17" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="D9" s="82" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="87"/>
+      <c r="A10" s="88"/>
       <c r="B10" s="17" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="D10" s="82" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="88" t="s">
-        <v>304</v>
+      <c r="A11" s="89" t="s">
+        <v>284</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="D11" s="82" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="87"/>
+      <c r="A12" s="88"/>
       <c r="B12" s="17" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="D12" s="82" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="87"/>
+      <c r="A13" s="88"/>
       <c r="B13" s="17" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="D13" s="82" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="88" t="s">
-        <v>305</v>
+      <c r="A14" s="89" t="s">
+        <v>285</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="D14" s="82" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="87"/>
+      <c r="A15" s="88"/>
       <c r="B15" s="17" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="D15" s="82" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="87"/>
+      <c r="A16" s="88"/>
       <c r="B16" s="17" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="D16" s="82" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="88" t="s">
-        <v>306</v>
+      <c r="A17" s="89" t="s">
+        <v>286</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="D17" s="82" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="87"/>
+      <c r="A18" s="88"/>
       <c r="B18" s="17" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="D18" s="82" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="87"/>
+      <c r="A19" s="88"/>
       <c r="B19" s="17" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="D19" s="82" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="88" t="s">
-        <v>307</v>
+      <c r="A20" s="89" t="s">
+        <v>287</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="D20" s="82" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="87"/>
+      <c r="A21" s="88"/>
       <c r="B21" s="17" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="D21" s="82" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="87"/>
+      <c r="A22" s="88"/>
       <c r="B22" s="17" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="D22" s="82" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="88" t="s">
-        <v>308</v>
+      <c r="A23" s="89" t="s">
+        <v>288</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="D23" s="82" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="87"/>
+      <c r="A24" s="88"/>
       <c r="B24" s="17" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="D24" s="82" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="87"/>
+      <c r="A25" s="88"/>
       <c r="B25" s="17" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="D25" s="82" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="88" t="s">
-        <v>309</v>
+      <c r="A26" s="89" t="s">
+        <v>289</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D26" s="82" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="88"/>
+      <c r="A27" s="89"/>
       <c r="B27" s="17" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="D27" s="82" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="88"/>
+      <c r="A28" s="89"/>
       <c r="B28" s="17" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="D28" s="82" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>300</v>
+        <v>280</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="87" t="s">
-        <v>279</v>
+      <c r="A29" s="88" t="s">
+        <v>259</v>
       </c>
       <c r="B29" s="17" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D29" s="71" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="144" x14ac:dyDescent="0.3">
-      <c r="A30" s="87"/>
+      <c r="A30" s="88"/>
       <c r="B30" s="17" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D30" s="71" t="s">
         <v>47</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="87"/>
+      <c r="A31" s="88"/>
       <c r="B31" s="17" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D31" s="71" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="E31" s="16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="88"/>
+      <c r="B32" s="17" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="87"/>
-      <c r="B32" s="17" t="s">
-        <v>182</v>
-      </c>
       <c r="D32" s="71" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E32" s="16"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="87"/>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="88"/>
       <c r="B33" s="17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D33" s="71" t="s">
         <v>56</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="90" x14ac:dyDescent="0.3">
-      <c r="A34" s="87" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="90" x14ac:dyDescent="0.3">
+      <c r="A34" s="88" t="s">
+        <v>170</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D34" s="71" t="s">
         <v>47</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="87"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="88"/>
       <c r="B35" s="17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D35" s="71" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="87"/>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="88"/>
       <c r="B36" s="17" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D36" s="71" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="87"/>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="88"/>
       <c r="B37" s="17" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D37" s="71" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="87"/>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="88"/>
       <c r="B38" s="17" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D38" s="71" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="87"/>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="88"/>
       <c r="B39" s="56" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="D39" s="71" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="87" t="s">
-        <v>296</v>
+        <v>187</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="88" t="s">
+        <v>276</v>
       </c>
       <c r="B40" s="17" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D40" s="71" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="87"/>
+        <v>197</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="88"/>
       <c r="B41" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="D41" s="71" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="54" x14ac:dyDescent="0.3">
-      <c r="A42" s="87"/>
+    <row r="42" spans="1:5" ht="54" x14ac:dyDescent="0.3">
+      <c r="A42" s="88"/>
       <c r="B42" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="D42" s="71" t="s">
+        <v>205</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="88"/>
+      <c r="B43" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="D43" s="84"/>
+      <c r="E43" s="16"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="88"/>
+      <c r="B44" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="D44" s="84"/>
+      <c r="E44" s="16"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="88"/>
+      <c r="B45" s="17" t="s">
+        <v>294</v>
+      </c>
+      <c r="D45" s="84"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="88"/>
+      <c r="B46" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="D46" s="84"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="88"/>
+      <c r="B47" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="D47" s="84"/>
+    </row>
+    <row r="48" spans="1:5" ht="108" x14ac:dyDescent="0.3">
+      <c r="A48" s="88" t="s">
+        <v>277</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="D48" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="E48" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="C42" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="D42" s="71" t="s">
-        <v>223</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="87"/>
-      <c r="B43" s="89" t="s">
-        <v>192</v>
-      </c>
-      <c r="C43" s="89"/>
-      <c r="D43" s="90" t="s">
-        <v>56</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="91"/>
-    </row>
-    <row r="44" spans="1:8" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="87"/>
-      <c r="B44" s="89" t="s">
-        <v>310</v>
-      </c>
-      <c r="C44" s="89"/>
-      <c r="D44" s="90"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="91"/>
-    </row>
-    <row r="45" spans="1:8" s="92" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="87"/>
-      <c r="B45" s="89" t="s">
-        <v>311</v>
-      </c>
-      <c r="C45" s="89"/>
-      <c r="D45" s="90"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="91"/>
-    </row>
-    <row r="46" spans="1:8" ht="90" x14ac:dyDescent="0.3">
-      <c r="A46" s="87"/>
-      <c r="B46" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="D46" s="71" t="s">
-        <v>47</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="87"/>
-      <c r="B47" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="D47" s="71" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="87"/>
-      <c r="B48" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="D48" s="71" t="s">
-        <v>161</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="87"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="88"/>
       <c r="B49" s="17" t="s">
-        <v>197</v>
+        <v>279</v>
       </c>
       <c r="D49" s="71" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="87"/>
-      <c r="B50" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="D50" s="71" t="s">
-        <v>56</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="87"/>
-      <c r="B51" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="D51" s="71" t="s">
-        <v>56</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="144" x14ac:dyDescent="0.3">
-      <c r="A52" s="87"/>
-      <c r="B52" s="17" t="s">
-        <v>226</v>
-      </c>
-      <c r="D52" s="71" t="s">
-        <v>171</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="87"/>
-      <c r="B53" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="D53" s="71" t="s">
-        <v>171</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="87"/>
-      <c r="B54" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="D54" s="71" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="90" x14ac:dyDescent="0.3">
-      <c r="A55" s="87"/>
-      <c r="B55" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="D55" s="71" t="s">
-        <v>47</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="87"/>
-      <c r="B56" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="D56" s="71" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="108" x14ac:dyDescent="0.3">
-      <c r="A57" s="87" t="s">
-        <v>297</v>
-      </c>
-      <c r="B57" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="D57" s="71" t="s">
-        <v>47</v>
-      </c>
-      <c r="E57" s="16" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="87"/>
-      <c r="B58" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="D58" s="71" t="s">
         <v>110</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A48:A49"/>
     <mergeCell ref="A29:A33"/>
     <mergeCell ref="A34:A39"/>
-    <mergeCell ref="A40:A56"/>
+    <mergeCell ref="A40:A47"/>
     <mergeCell ref="A2:A4"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A26:A28"/>
@@ -4782,7 +4566,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4824,10 +4608,10 @@
         <v>32</v>
       </c>
       <c r="D2" s="44" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>301</v>
+        <v>281</v>
       </c>
       <c r="F2" s="41"/>
       <c r="G2" s="42"/>

--- a/健康档案字段/基础字段/健康档案字段 v4.0.xlsx
+++ b/健康档案字段/基础字段/健康档案字段 v4.0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="患者档案" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="293">
   <si>
     <t>字段名</t>
     <rPh sb="0" eb="1">
@@ -1264,29 +1264,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>按周算（）</t>
-    <rPh sb="0" eb="1">
-      <t>an</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>zhou</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>suan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参考04年</t>
-    <rPh sb="0" eb="1">
-      <t>can'ko</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>nian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1:高血压（1-3级）;
 2:年龄＞55（男性），＞65（女性);
 3:吸烟;
@@ -1415,28 +1392,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1:5次/周~6次/周; 2:3次/周~4次d/周; 3:1次/周~2次/周; 4:每天;</t>
-    <rPh sb="3" eb="4">
-      <t>ci</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ci</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ci</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ci</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>ci</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>ci</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PWV</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1649,6 +1604,13 @@
     </rPh>
     <rPh sb="7" eb="8">
       <t>zhen'duan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>次</t>
+    <rPh sb="0" eb="1">
+      <t>ci</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2336,8 +2298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2620,9 +2582,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -2830,7 +2792,7 @@
     <row r="12" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="85"/>
       <c r="B12" s="11" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>103</v>
@@ -2838,16 +2800,12 @@
       <c r="D12" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="E12" s="44" t="s">
-        <v>267</v>
-      </c>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41" t="s">
-        <v>247</v>
-      </c>
-      <c r="H12" s="42" t="s">
-        <v>246</v>
-      </c>
+      <c r="E12" s="44"/>
+      <c r="F12" s="41" t="s">
+        <v>292</v>
+      </c>
+      <c r="G12" s="41"/>
+      <c r="H12" s="42"/>
     </row>
     <row r="13" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="85"/>
@@ -2863,7 +2821,7 @@
     </row>
     <row r="14" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="85" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>105</v>
@@ -2917,10 +2875,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="76" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E17" s="44" t="s">
         <v>235</v>
@@ -3060,17 +3018,17 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -3084,8 +3042,8 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
@@ -3240,7 +3198,7 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="86"/>
       <c r="B6" s="78" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E6" s="48"/>
       <c r="F6" s="5"/>
@@ -3295,7 +3253,7 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="86"/>
       <c r="B9" s="14" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -3663,7 +3621,7 @@
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="86"/>
       <c r="B25" s="14" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -3675,7 +3633,7 @@
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="86"/>
       <c r="B26" s="14" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -3689,7 +3647,7 @@
         <v>239</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>237</v>
@@ -3702,7 +3660,7 @@
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="87"/>
       <c r="B28" s="15" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>237</v>
@@ -3715,7 +3673,7 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="87"/>
       <c r="B29" s="15" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>237</v>
@@ -3728,12 +3686,12 @@
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="87"/>
       <c r="B30" s="15" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C30" s="15"/>
       <c r="D30"/>
       <c r="G30" s="15" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="31" spans="1:10" s="67" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
@@ -3754,10 +3712,10 @@
     </row>
     <row r="32" spans="1:10" s="67" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="86" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C32" s="65"/>
       <c r="D32" s="65"/>
@@ -3771,14 +3729,14 @@
     <row r="33" spans="1:10" s="67" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="86"/>
       <c r="B33" s="17" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C33" s="65"/>
       <c r="D33" s="65"/>
       <c r="E33" s="65"/>
       <c r="F33" s="28"/>
       <c r="G33" s="83" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H33" s="65"/>
       <c r="I33" s="65"/>
@@ -3787,33 +3745,33 @@
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="86"/>
       <c r="B34" s="13" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="86" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="86"/>
       <c r="B36" s="17" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G36" s="83" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="86"/>
       <c r="B37" s="13" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -3925,7 +3883,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="74" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -3983,7 +3941,7 @@
     </row>
     <row r="2" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="89" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>198</v>
@@ -4016,12 +3974,12 @@
         <v>192</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="89" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>198</v>
@@ -4054,12 +4012,12 @@
         <v>192</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="89" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>198</v>
@@ -4092,12 +4050,12 @@
         <v>192</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="89" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B11" s="17" t="s">
         <v>198</v>
@@ -4130,12 +4088,12 @@
         <v>192</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="89" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>198</v>
@@ -4168,12 +4126,12 @@
         <v>192</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="89" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B17" s="17" t="s">
         <v>198</v>
@@ -4206,12 +4164,12 @@
         <v>192</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="89" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B20" s="17" t="s">
         <v>198</v>
@@ -4244,12 +4202,12 @@
         <v>192</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="89" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B23" s="17" t="s">
         <v>198</v>
@@ -4282,12 +4240,12 @@
         <v>192</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="89" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B26" s="17" t="s">
         <v>174</v>
@@ -4320,12 +4278,12 @@
         <v>192</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="88" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B29" s="17" t="s">
         <v>171</v>
@@ -4444,7 +4402,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="88" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B40" s="17" t="s">
         <v>172</v>
@@ -4483,7 +4441,7 @@
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="88"/>
       <c r="B43" s="17" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D43" s="84"/>
       <c r="E43" s="16"/>
@@ -4491,7 +4449,7 @@
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="88"/>
       <c r="B44" s="17" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D44" s="84"/>
       <c r="E44" s="16"/>
@@ -4499,30 +4457,30 @@
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="88"/>
       <c r="B45" s="17" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D45" s="84"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="88"/>
       <c r="B46" s="17" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D46" s="84"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="88"/>
       <c r="B47" s="17" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D47" s="84"/>
     </row>
     <row r="48" spans="1:5" ht="108" x14ac:dyDescent="0.3">
       <c r="A48" s="88" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D48" s="71" t="s">
         <v>47</v>
@@ -4534,7 +4492,7 @@
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="88"/>
       <c r="B49" s="17" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D49" s="71" t="s">
         <v>110</v>
@@ -4608,10 +4566,10 @@
         <v>32</v>
       </c>
       <c r="D2" s="44" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F2" s="41"/>
       <c r="G2" s="42"/>

--- a/健康档案字段/基础字段/健康档案字段 v4.0.xlsx
+++ b/健康档案字段/基础字段/健康档案字段 v4.0.xlsx
@@ -2584,7 +2584,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
